--- a/src/main/resources/testdata/TestData.xlsx
+++ b/src/main/resources/testdata/TestData.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
-    <sheet name="testdata" sheetId="1" r:id="rId1"/>
-    <sheet name="sample" sheetId="2" r:id="rId2"/>
+    <sheet name="addPlace" sheetId="1" r:id="rId1"/>
+    <sheet name="location" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Testcases</t>
-  </si>
-  <si>
-    <t>Data1</t>
-  </si>
-  <si>
-    <t>Data2</t>
-  </si>
-  <si>
-    <t>Data3</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>vs1</t>
-  </si>
-  <si>
-    <t>vs2</t>
-  </si>
-  <si>
-    <t>vs3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Purchase</t>
   </si>
@@ -75,7 +51,46 @@
     <t>vs9</t>
   </si>
   <si>
-    <t>phoneNumbers</t>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>vidyasagarreddy</t>
+  </si>
+  <si>
+    <t>Kondapur</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>https://rahulshettyacademy.com/</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>Verify if place is being successfully added using payload</t>
+  </si>
+  <si>
+    <t>TestScenario</t>
   </si>
 </sst>
 </file>
@@ -111,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,97 +409,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>98989766</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
+      <c r="E3" s="1">
+        <v>23435</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>21334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>23435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>345345</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>-34</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>